--- a/Candy database.xlsx
+++ b/Candy database.xlsx
@@ -5,15 +5,15 @@
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookair/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookair/Desktop/Data analysis/Projects/Excel Projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294F857E-107B-204D-AB38-6DFB528A684F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E9402C-FACE-1B4B-A94D-F29FD7F5EA85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="7" r:id="rId1"/>
+    <sheet name="Dashboard" sheetId="7" r:id="rId1"/>
     <sheet name="Sugar-Price" sheetId="6" r:id="rId2"/>
     <sheet name="Score" sheetId="5" r:id="rId3"/>
     <sheet name="Bar vs Hard" sheetId="4" r:id="rId4"/>
@@ -21,12 +21,12 @@
     <sheet name="Original" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Foglio1!$A$1:$W$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Dashboard!$A$1:$W$46</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="76" r:id="rId7"/>
-    <pivotCache cacheId="77" r:id="rId8"/>
+    <pivotCache cacheId="2" r:id="rId7"/>
+    <pivotCache cacheId="3" r:id="rId8"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -596,8 +596,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFBEF6"/>
       <color rgb="FFDAFEFC"/>
-      <color rgb="FFFFBEF6"/>
       <color rgb="FFDDF9FD"/>
       <color rgb="FFFFFECB"/>
       <color rgb="FFFFFFB1"/>
@@ -1108,7 +1108,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[candy-data.xlsx]Score!Products by Score_x000d_
+    <c:name>[Candy database.xlsx]Score!Products by Score_x000d_
 </c:name>
     <c:fmtId val="8"/>
   </c:pivotSource>
@@ -1655,7 +1655,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[candy-data.xlsx]Bar vs Hard!Hard Candy</c:name>
+    <c:name>[Candy database.xlsx]Bar vs Hard!Hard Candy</c:name>
     <c:fmtId val="8"/>
   </c:pivotSource>
   <c:chart>
@@ -2770,7 +2770,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[candy-data.xlsx]Bar vs Hard!Bar Candy</c:name>
+    <c:name>[Candy database.xlsx]Bar vs Hard!Bar Candy</c:name>
     <c:fmtId val="13"/>
   </c:pivotSource>
   <c:chart>
@@ -4354,7 +4354,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[candy-data.xlsx]Score!Products by Score_x000d_
+    <c:name>[Candy database.xlsx]Score!Products by Score_x000d_
 </c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
@@ -4786,7 +4786,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[candy-data.xlsx]Bar vs Hard!Bar Candy</c:name>
+    <c:name>[Candy database.xlsx]Bar vs Hard!Bar Candy</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -5653,7 +5653,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[candy-data.xlsx]Bar vs Hard!Hard Candy</c:name>
+    <c:name>[Candy database.xlsx]Bar vs Hard!Hard Candy</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -11191,15 +11191,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14106,7 +14106,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E781326F-15A6-7F40-93CB-6396FE0F27BC}" name="Tabella pivot7" cacheId="77" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E781326F-15A6-7F40-93CB-6396FE0F27BC}" name="Tabella pivot7" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:D13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" showAll="0" measureFilter="1" sortType="descending">
@@ -14297,7 +14297,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3031636B-16B7-A44E-B2B1-372090538A2A}" name="Products by Score_x000d__x000a_" cacheId="77" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3031636B-16B7-A44E-B2B1-372090538A2A}" name="Products by Score_x000d__x000a_" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" showAll="0" measureFilter="1" sortType="descending">
@@ -14495,7 +14495,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D0FDB03-BA25-0946-B8D5-B0832F865FA1}" name="Hard Candy" cacheId="76" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D0FDB03-BA25-0946-B8D5-B0832F865FA1}" name="Hard Candy" cacheId="2" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="A32:B39" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -14803,7 +14803,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6568BB68-A53C-6A4F-AEE5-22E2B70E15DB}" name="Bar Candy" cacheId="76" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6568BB68-A53C-6A4F-AEE5-22E2B70E15DB}" name="Bar Candy" cacheId="2" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
   <location ref="A4:B11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -15428,6 +15428,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5BE1491-3E9E-324B-B9B7-B36C22420B7F}">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
@@ -15444,10 +15447,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6709D14-FE20-AF4C-81B3-C7EB555B697F}">
+  <sheetPr>
+    <tabColor rgb="FFFFBEF6"/>
+  </sheetPr>
   <dimension ref="A3:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15666,10 +15672,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141784D2-8C34-9545-B3FE-DA6329DAC841}">
+  <sheetPr>
+    <tabColor rgb="FFFFBEF6"/>
+  </sheetPr>
   <dimension ref="A3:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15774,10 +15783,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C174DF9C-5CCA-9E42-AB74-9FC08F3CE739}">
+  <sheetPr>
+    <tabColor rgb="FFFFBEF6"/>
+  </sheetPr>
   <dimension ref="A4:B39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15942,10 +15954,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFFBEF6"/>
+  </sheetPr>
   <dimension ref="A1:M86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:XFD54"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17794,10 +17809,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F95F33E6-04B8-8849-ADAF-FC1F6885DFFA}">
+  <sheetPr>
+    <tabColor rgb="FFFFBEF6"/>
+  </sheetPr>
   <dimension ref="A1:M86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
